--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -13,68 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
-  <si>
-    <t># blocks</t>
-  </si>
-  <si>
-    <t>Search type</t>
-  </si>
-  <si>
-    <t># expansions</t>
-  </si>
-  <si>
-    <t>Time [ms]</t>
-  </si>
-  <si>
-    <t>Memory [kB]</t>
-  </si>
-  <si>
-    <t>[g_F,g_B]</t>
-  </si>
-  <si>
-    <t>Grid with Solution</t>
-  </si>
-  <si>
-    <t>bidirectional</t>
-  </si>
-  <si>
-    <t>[23,23]</t>
-  </si>
-  <si>
-    <t>[22,22]</t>
-  </si>
-  <si>
-    <t>[21,21]</t>
-  </si>
-  <si>
-    <t>[21,17]</t>
-  </si>
-  <si>
-    <t>[18,18]</t>
-  </si>
-  <si>
-    <t>[17,17]</t>
-  </si>
-  <si>
-    <t>file_path_here</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,243 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>55935</v>
-      </c>
-      <c r="D2">
-        <v>154977</v>
-      </c>
-      <c r="E2">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>12118</v>
-      </c>
-      <c r="D3">
-        <v>21782</v>
-      </c>
-      <c r="E3">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>4128</v>
-      </c>
-      <c r="D4">
-        <v>6182</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4466</v>
-      </c>
-      <c r="D5">
-        <v>6287</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>2840</v>
-      </c>
-      <c r="D6">
-        <v>4047</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>3716</v>
-      </c>
-      <c r="D7">
-        <v>5445</v>
-      </c>
-      <c r="E7">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>403</v>
-      </c>
-      <c r="D8">
-        <v>541</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>403</v>
-      </c>
-      <c r="D9">
-        <v>520</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>365</v>
-      </c>
-      <c r="D10">
-        <v>459</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -13,10 +13,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t># blocks</t>
+  </si>
+  <si>
+    <t>Search type</t>
+  </si>
+  <si>
+    <t># expansions</t>
+  </si>
+  <si>
+    <t>Time [ms]</t>
+  </si>
+  <si>
+    <t>Memory [kB]</t>
+  </si>
+  <si>
+    <t>[g_F,g_B]</t>
+  </si>
+  <si>
+    <t>Grid with Solution</t>
+  </si>
+  <si>
+    <t>unidirectional s-t</t>
+  </si>
+  <si>
+    <t>unidirectional t-s</t>
+  </si>
+  <si>
+    <t>[N/A,N/A]</t>
+  </si>
+  <si>
+    <t>file_path_here</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +86,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +404,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>280</v>
+      </c>
+      <c r="D2">
+        <v>91</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>280</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t># blocks</t>
   </si>
@@ -43,7 +43,19 @@
     <t>unidirectional t-s</t>
   </si>
   <si>
+    <t>bidirectional</t>
+  </si>
+  <si>
     <t>[N/A,N/A]</t>
+  </si>
+  <si>
+    <t>[39,45]</t>
+  </si>
+  <si>
+    <t>[50,44]</t>
+  </si>
+  <si>
+    <t>[48,56]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,19 +453,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>280</v>
+        <v>1147</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>2455</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,19 +476,180 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>280</v>
+        <v>635</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>1233</v>
       </c>
       <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>2595</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>57386</v>
+      </c>
+      <c r="D5">
+        <v>141570</v>
+      </c>
+      <c r="E5">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>12553</v>
+      </c>
+      <c r="D6">
+        <v>29873</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C7">
+        <v>42732</v>
+      </c>
+      <c r="D7">
+        <v>123682</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>160153</v>
+      </c>
+      <c r="D8">
+        <v>558700</v>
+      </c>
+      <c r="E8">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3210905</v>
+      </c>
+      <c r="D9">
+        <v>9188381</v>
+      </c>
+      <c r="E9">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1626921</v>
+      </c>
+      <c r="D10">
+        <v>38987985</v>
+      </c>
+      <c r="E10">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="25">
   <si>
     <t># blocks</t>
   </si>
@@ -49,13 +49,43 @@
     <t>[N/A,N/A]</t>
   </si>
   <si>
-    <t>[39,45]</t>
-  </si>
-  <si>
-    <t>[50,44]</t>
-  </si>
-  <si>
-    <t>[48,56]</t>
+    <t>[15,15]</t>
+  </si>
+  <si>
+    <t>[14,18]</t>
+  </si>
+  <si>
+    <t>[15,17]</t>
+  </si>
+  <si>
+    <t>[19,21]</t>
+  </si>
+  <si>
+    <t>[18,22]</t>
+  </si>
+  <si>
+    <t>[20,24]</t>
+  </si>
+  <si>
+    <t>[24,22]</t>
+  </si>
+  <si>
+    <t>[24,26]</t>
+  </si>
+  <si>
+    <t>[23,27]</t>
+  </si>
+  <si>
+    <t>[24,28]</t>
+  </si>
+  <si>
+    <t>[26,28]</t>
+  </si>
+  <si>
+    <t>[27,29]</t>
+  </si>
+  <si>
+    <t>[28,30]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -416,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,209 +477,1106 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1147</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>2455</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>635</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>1233</v>
+        <v>125</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>2595</v>
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>57386</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>141570</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>12553</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>29873</v>
+        <v>116</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>42732</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>123682</v>
+        <v>120</v>
       </c>
       <c r="E7">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>160153</v>
+        <v>136</v>
       </c>
       <c r="D8">
-        <v>558700</v>
+        <v>184</v>
       </c>
       <c r="E8">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3210905</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>9188381</v>
+        <v>171</v>
       </c>
       <c r="E9">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>143</v>
+      </c>
+      <c r="E10">
         <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1626921</v>
-      </c>
-      <c r="D10">
-        <v>38987985</v>
-      </c>
-      <c r="E10">
-        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>136</v>
+      </c>
+      <c r="D11">
+        <v>187</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>177</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>147</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>136</v>
+      </c>
+      <c r="D14">
+        <v>215</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>148</v>
+      </c>
+      <c r="D15">
+        <v>188</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>215</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>182</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>417</v>
+      </c>
+      <c r="D20">
+        <v>512</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>301</v>
+      </c>
+      <c r="D21">
+        <v>382</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>189</v>
+      </c>
+      <c r="D22">
+        <v>288</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7302</v>
+      </c>
+      <c r="D23">
+        <v>8761</v>
+      </c>
+      <c r="E23">
+        <v>137</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7980</v>
+      </c>
+      <c r="D24">
+        <v>8936</v>
+      </c>
+      <c r="E24">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>3136</v>
+      </c>
+      <c r="D25">
+        <v>5715</v>
+      </c>
+      <c r="E25">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>8666</v>
+      </c>
+      <c r="D26">
+        <v>10457</v>
+      </c>
+      <c r="E26">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>9904</v>
+      </c>
+      <c r="D27">
+        <v>11441</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2772</v>
+      </c>
+      <c r="D28">
+        <v>4350</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1733</v>
+      </c>
+      <c r="D29">
+        <v>2540</v>
+      </c>
+      <c r="E29">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2681</v>
+      </c>
+      <c r="D30">
+        <v>3681</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>1131</v>
+      </c>
+      <c r="D31">
+        <v>1648</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>16545</v>
+      </c>
+      <c r="D32">
+        <v>21488</v>
+      </c>
+      <c r="E32">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>74632</v>
+      </c>
+      <c r="D33">
+        <v>112528</v>
+      </c>
+      <c r="E33">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>5912</v>
+      </c>
+      <c r="D34">
+        <v>10128</v>
+      </c>
+      <c r="E34">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>86057</v>
+      </c>
+      <c r="D35">
+        <v>142541</v>
+      </c>
+      <c r="E35">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>294632</v>
+      </c>
+      <c r="D36">
+        <v>480699</v>
+      </c>
+      <c r="E36">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>19269</v>
+      </c>
+      <c r="D37">
+        <v>45814</v>
+      </c>
+      <c r="E37">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>35659</v>
+      </c>
+      <c r="D38">
+        <v>57708</v>
+      </c>
+      <c r="E38">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>170900</v>
+      </c>
+      <c r="D39">
+        <v>289588</v>
+      </c>
+      <c r="E39">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>5815</v>
+      </c>
+      <c r="D40">
+        <v>10794</v>
+      </c>
+      <c r="E40">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>52085</v>
+      </c>
+      <c r="D41">
+        <v>80399</v>
+      </c>
+      <c r="E41">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>166075</v>
+      </c>
+      <c r="D42">
+        <v>293052</v>
+      </c>
+      <c r="E42">
+        <v>156</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>18656</v>
+      </c>
+      <c r="D43">
+        <v>39119</v>
+      </c>
+      <c r="E43">
+        <v>151</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>316371</v>
+      </c>
+      <c r="D44">
+        <v>385617</v>
+      </c>
+      <c r="E44">
+        <v>151</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>722184</v>
+      </c>
+      <c r="D45">
+        <v>1032145</v>
+      </c>
+      <c r="E45">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>89332</v>
+      </c>
+      <c r="D46">
+        <v>317460</v>
+      </c>
+      <c r="E46">
+        <v>158</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>6792558</v>
+      </c>
+      <c r="D47">
+        <v>11029706</v>
+      </c>
+      <c r="E47">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>5262414</v>
+      </c>
+      <c r="D48">
+        <v>8798511</v>
+      </c>
+      <c r="E48">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>420705</v>
+      </c>
+      <c r="D49">
+        <v>12293980</v>
+      </c>
+      <c r="E49">
+        <v>152</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t># blocks</t>
   </si>
@@ -49,13 +49,7 @@
     <t>[N/A,N/A]</t>
   </si>
   <si>
-    <t>[44,40]</t>
-  </si>
-  <si>
-    <t>[43,51]</t>
-  </si>
-  <si>
-    <t>[44,60]</t>
+    <t>[6,7]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,19 +447,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1147</v>
+        <v>35989</v>
       </c>
       <c r="D2">
-        <v>2644</v>
+        <v>23151</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +470,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>635</v>
+        <v>35989</v>
       </c>
       <c r="D3">
-        <v>1265</v>
+        <v>27685</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,157 +493,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1178</v>
+        <v>5715</v>
       </c>
       <c r="D4">
-        <v>2521</v>
+        <v>9323</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>57386</v>
-      </c>
-      <c r="D5">
-        <v>141368</v>
-      </c>
-      <c r="E5">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>12553</v>
-      </c>
-      <c r="D6">
-        <v>29558</v>
-      </c>
-      <c r="E6">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>42481</v>
-      </c>
-      <c r="D7">
-        <v>123189</v>
-      </c>
-      <c r="E7">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>160153</v>
-      </c>
-      <c r="D8">
-        <v>570628</v>
-      </c>
-      <c r="E8">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>3210905</v>
-      </c>
-      <c r="D9">
-        <v>9539703</v>
-      </c>
-      <c r="E9">
-        <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1353960</v>
-      </c>
-      <c r="D10">
-        <v>11060172</v>
-      </c>
-      <c r="E10">
-        <v>179</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t># blocks</t>
   </si>
@@ -37,19 +37,10 @@
     <t>Grid with Solution</t>
   </si>
   <si>
-    <t>unidirectional s-t</t>
-  </si>
-  <si>
-    <t>unidirectional t-s</t>
-  </si>
-  <si>
     <t>bidirectional</t>
   </si>
   <si>
-    <t>[N/A,N/A]</t>
-  </si>
-  <si>
-    <t>[6,7]</t>
+    <t>[7,0]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -410,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,65 +438,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>35989</v>
+        <v>525</v>
       </c>
       <c r="D2">
-        <v>23151</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>35989</v>
-      </c>
-      <c r="D3">
-        <v>27685</v>
-      </c>
-      <c r="E3">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5715</v>
-      </c>
-      <c r="D4">
-        <v>9323</v>
-      </c>
-      <c r="E4">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t># blocks</t>
   </si>
@@ -37,10 +37,19 @@
     <t>Grid with Solution</t>
   </si>
   <si>
+    <t>unidirectional s-t</t>
+  </si>
+  <si>
+    <t>unidirectional t-s</t>
+  </si>
+  <si>
     <t>bidirectional</t>
   </si>
   <si>
-    <t>[7,0]</t>
+    <t>[N/A,N/A]</t>
+  </si>
+  <si>
+    <t>[16,18]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +447,65 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>525</v>
+        <v>20818</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>20729</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3">
+        <v>19151</v>
+      </c>
+      <c r="D3">
+        <v>16035</v>
+      </c>
+      <c r="E3">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5964</v>
+      </c>
+      <c r="D4">
+        <v>7699</v>
+      </c>
+      <c r="E4">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t># blocks</t>
   </si>
@@ -49,7 +49,10 @@
     <t>[N/A,N/A]</t>
   </si>
   <si>
-    <t>[16,18]</t>
+    <t>[44,40]</t>
+  </si>
+  <si>
+    <t>[44,44]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>20818</v>
+        <v>994</v>
       </c>
       <c r="D2">
-        <v>20729</v>
+        <v>2312</v>
       </c>
       <c r="E2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,19 +473,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>19151</v>
+        <v>485</v>
       </c>
       <c r="D3">
-        <v>16035</v>
+        <v>1360</v>
       </c>
       <c r="E3">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,19 +496,88 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5964</v>
+        <v>1131</v>
       </c>
       <c r="D4">
-        <v>7699</v>
+        <v>2517</v>
       </c>
       <c r="E4">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8065</v>
+      </c>
+      <c r="D5">
+        <v>19927</v>
+      </c>
+      <c r="E5">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3498</v>
+      </c>
+      <c r="D6">
+        <v>8300</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>8692</v>
+      </c>
+      <c r="D7">
+        <v>20589</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t># blocks</t>
   </si>
@@ -40,19 +40,13 @@
     <t>unidirectional s-t</t>
   </si>
   <si>
-    <t>unidirectional t-s</t>
-  </si>
-  <si>
     <t>bidirectional</t>
   </si>
   <si>
     <t>[N/A,N/A]</t>
   </si>
   <si>
-    <t>[44,40]</t>
-  </si>
-  <si>
-    <t>[44,44]</t>
+    <t>[5,8]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -413,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,140 +438,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>994</v>
+        <v>2312</v>
       </c>
       <c r="D2">
-        <v>2312</v>
+        <v>1483</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>485</v>
+        <v>4624</v>
       </c>
       <c r="D3">
-        <v>1360</v>
+        <v>6013</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1131</v>
-      </c>
-      <c r="D4">
-        <v>2517</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>8065</v>
-      </c>
-      <c r="D5">
-        <v>19927</v>
-      </c>
-      <c r="E5">
-        <v>157</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3498</v>
-      </c>
-      <c r="D6">
-        <v>8300</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>8692</v>
-      </c>
-      <c r="D7">
-        <v>20589</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -13,59 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t># blocks</t>
-  </si>
-  <si>
-    <t>Search type</t>
-  </si>
-  <si>
-    <t># expansions</t>
-  </si>
-  <si>
-    <t>Time [ms]</t>
-  </si>
-  <si>
-    <t>Memory [kB]</t>
-  </si>
-  <si>
-    <t>[g_F,g_B]</t>
-  </si>
-  <si>
-    <t>Grid with Solution</t>
-  </si>
-  <si>
-    <t>unidirectional s-t</t>
-  </si>
-  <si>
-    <t>bidirectional</t>
-  </si>
-  <si>
-    <t>[N/A,N/A]</t>
-  </si>
-  <si>
-    <t>[5,8]</t>
-  </si>
-  <si>
-    <t>file_path_here</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -89,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,82 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2312</v>
-      </c>
-      <c r="D2">
-        <v>1483</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>4624</v>
-      </c>
-      <c r="D3">
-        <v>6013</v>
-      </c>
-      <c r="E3">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -13,10 +13,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t># blocks</t>
+  </si>
+  <si>
+    <t>Search type</t>
+  </si>
+  <si>
+    <t># expansions</t>
+  </si>
+  <si>
+    <t>Time [ms]</t>
+  </si>
+  <si>
+    <t>Memory [kB]</t>
+  </si>
+  <si>
+    <t>[g_F,g_B]</t>
+  </si>
+  <si>
+    <t>Grid with Solution</t>
+  </si>
+  <si>
+    <t>unidirectional s-t</t>
+  </si>
+  <si>
+    <t>[N/A,N/A]</t>
+  </si>
+  <si>
+    <t>file_path_here</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +83,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +401,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>38687</v>
+      </c>
+      <c r="D2">
+        <v>110846</v>
+      </c>
+      <c r="E2">
+        <v>7932</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -37,10 +37,10 @@
     <t>Grid with Solution</t>
   </si>
   <si>
-    <t>unidirectional s-t</t>
-  </si>
-  <si>
-    <t>[N/A,N/A]</t>
+    <t>bidirectional</t>
+  </si>
+  <si>
+    <t>[9,4]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -432,19 +432,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>38687</v>
+        <v>453</v>
       </c>
       <c r="D2">
-        <v>110846</v>
+        <v>735</v>
       </c>
       <c r="E2">
-        <v>7932</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="14">
   <si>
     <t># blocks</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Grid with Solution</t>
   </si>
   <si>
+    <t>unidirectional s-t</t>
+  </si>
+  <si>
+    <t>unidirectional t-s</t>
+  </si>
+  <si>
     <t>bidirectional</t>
   </si>
   <si>
-    <t>[9,4]</t>
+    <t>[N/A,N/A]</t>
+  </si>
+  <si>
+    <t>[10,12]</t>
+  </si>
+  <si>
+    <t>[11,11]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,25 +444,692 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="D2">
+        <v>354</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>523</v>
+      </c>
+      <c r="D3">
+        <v>368</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>168</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>281</v>
+      </c>
+      <c r="D5">
+        <v>228</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>143</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>333</v>
+      </c>
+      <c r="D9">
+        <v>194</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>159</v>
+      </c>
+      <c r="D10">
+        <v>145</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>483</v>
+      </c>
+      <c r="D11">
+        <v>306</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>298</v>
+      </c>
+      <c r="D12">
+        <v>213</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>135</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>480</v>
+      </c>
+      <c r="D14">
+        <v>331</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>523</v>
+      </c>
+      <c r="D15">
+        <v>371</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>182</v>
+      </c>
+      <c r="D16">
+        <v>167</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>453</v>
-      </c>
-      <c r="D2">
-        <v>735</v>
-      </c>
-      <c r="E2">
-        <v>355</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>332</v>
+      </c>
+      <c r="D17">
+        <v>226</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>466</v>
+      </c>
+      <c r="D18">
+        <v>289</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>167</v>
+      </c>
+      <c r="D19">
+        <v>163</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>482</v>
+      </c>
+      <c r="D20">
+        <v>342</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>523</v>
+      </c>
+      <c r="D21">
+        <v>387</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>184</v>
+      </c>
+      <c r="D22">
+        <v>175</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>310</v>
+      </c>
+      <c r="D23">
+        <v>211</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>298</v>
+      </c>
+      <c r="D24">
+        <v>186</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>244</v>
+      </c>
+      <c r="D25">
+        <v>202</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>480</v>
+      </c>
+      <c r="D26">
+        <v>336</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>523</v>
+      </c>
+      <c r="D27">
+        <v>363</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>182</v>
+      </c>
+      <c r="D28">
+        <v>155</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>479</v>
+      </c>
+      <c r="D29">
+        <v>279</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>514</v>
+      </c>
+      <c r="D30">
+        <v>271</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <v>195</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
     <t># blocks</t>
   </si>
@@ -49,10 +49,19 @@
     <t>[N/A,N/A]</t>
   </si>
   <si>
-    <t>[10,12]</t>
-  </si>
-  <si>
-    <t>[11,11]</t>
+    <t>[9,7]</t>
+  </si>
+  <si>
+    <t>[10,10]</t>
+  </si>
+  <si>
+    <t>[9,9]</t>
+  </si>
+  <si>
+    <t>[7,9]</t>
+  </si>
+  <si>
+    <t>[8,8]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -450,19 +459,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,19 +482,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>368</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,19 +505,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,19 +528,19 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,19 +551,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,19 +597,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,19 +620,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,19 +643,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>483</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -680,19 +689,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -703,19 +712,19 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -726,19 +735,19 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -749,19 +758,19 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>523</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -772,19 +781,19 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -795,19 +804,19 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -818,19 +827,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>466</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -841,19 +850,19 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -864,19 +873,19 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -887,19 +896,19 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>523</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -910,19 +919,19 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -933,19 +942,19 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -956,19 +965,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="D24">
-        <v>186</v>
+        <v>476</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -979,19 +988,19 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>257</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1002,19 +1011,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1025,19 +1034,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>523</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>363</v>
+        <v>62</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1048,19 +1057,19 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1071,19 +1080,19 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>479</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1094,19 +1103,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>514</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1117,19 +1126,19 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/search_results.xlsx
+++ b/search_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="19">
   <si>
     <t># blocks</t>
   </si>
@@ -49,19 +49,25 @@
     <t>[N/A,N/A]</t>
   </si>
   <si>
+    <t>[6,10]</t>
+  </si>
+  <si>
+    <t>[10,10]</t>
+  </si>
+  <si>
+    <t>[9,9]</t>
+  </si>
+  <si>
     <t>[9,7]</t>
   </si>
   <si>
-    <t>[10,10]</t>
-  </si>
-  <si>
-    <t>[9,9]</t>
-  </si>
-  <si>
     <t>[7,9]</t>
   </si>
   <si>
     <t>[8,8]</t>
+  </si>
+  <si>
+    <t>[8,10]</t>
   </si>
   <si>
     <t>file_path_here</t>
@@ -459,19 +465,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,19 +488,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +514,16 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +537,16 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +560,16 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +583,16 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +606,16 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -623,16 +629,16 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -646,16 +652,16 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -666,19 +672,19 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -689,19 +695,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -712,19 +718,19 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -738,16 +744,16 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -758,19 +764,19 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,19 +787,19 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -807,16 +813,16 @@
         <v>70</v>
       </c>
       <c r="D17">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -830,16 +836,16 @@
         <v>70</v>
       </c>
       <c r="D18">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -853,16 +859,16 @@
         <v>51</v>
       </c>
       <c r="D19">
-        <v>476</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -873,19 +879,19 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -896,19 +902,19 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -919,19 +925,19 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -942,19 +948,19 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D23">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="E23">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -965,19 +971,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D24">
-        <v>476</v>
+        <v>87</v>
       </c>
       <c r="E24">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -988,19 +994,19 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1014,16 +1020,16 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1034,19 +1040,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1057,19 +1063,19 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1080,19 +1086,19 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D29">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1103,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1126,19 +1132,19 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="E31">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
